--- a/resources/excels/MG.xlsx
+++ b/resources/excels/MG.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B69447-5DDB-D947-8727-26F929A53C84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="9340" firstSheet="5" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -27,6 +28,7 @@
     <sheet name="Authentication Policy" sheetId="13" r:id="rId13"/>
     <sheet name="Action Tagging" sheetId="14" r:id="rId14"/>
     <sheet name="State Queue Mapping" sheetId="15" r:id="rId15"/>
+    <sheet name="QuestionAnswerKey" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="723">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2039,15 +2041,6 @@
     <t>334705780</t>
   </si>
   <si>
-    <t>334705781</t>
-  </si>
-  <si>
-    <t>334705782</t>
-  </si>
-  <si>
-    <t>334705783</t>
-  </si>
-  <si>
     <t>TWFyQDIwMjE</t>
   </si>
   <si>
@@ -2057,16 +2050,175 @@
     <t>Test Data-UAT</t>
   </si>
   <si>
-    <t>Test Data-PROD</t>
-  </si>
-  <si>
     <t>3319110417819230</t>
+  </si>
+  <si>
+    <t>No authentication policy statement configured</t>
+  </si>
+  <si>
+    <t>Test Data-Prod</t>
+  </si>
+  <si>
+    <t>Auth Pop up(TRUE/FALSE)</t>
+  </si>
+  <si>
+    <t>reverseTransaction</t>
+  </si>
+  <si>
+    <t>resetPin</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>unblock</t>
+  </si>
+  <si>
+    <t>sendNotification</t>
+  </si>
+  <si>
+    <t>voucher</t>
+  </si>
+  <si>
+    <t>resetMe2UPassword</t>
+  </si>
+  <si>
+    <t>simUnBarring</t>
+  </si>
+  <si>
+    <t>simBarring</t>
+  </si>
+  <si>
+    <t>changeServiceClass</t>
+  </si>
+  <si>
+    <t>Question Label</t>
+  </si>
+  <si>
+    <t>Question_Key</t>
+  </si>
+  <si>
+    <t>Answer_key</t>
+  </si>
+  <si>
+    <t>Airtel Money Name</t>
+  </si>
+  <si>
+    <t>AM_NAME</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/profile.result.firstName</t>
+  </si>
+  <si>
+    <t>Available Credit Balance</t>
+  </si>
+  <si>
+    <t>AVAILABLE_CREDIT_BALANCE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/account/plans.result.mainAccountBalance.balance</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.dob</t>
+  </si>
+  <si>
+    <t>GSM Name</t>
+  </si>
+  <si>
+    <t>GSM_NAME</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.name</t>
+  </si>
+  <si>
+    <t>Usage History Last Five Transaction</t>
+  </si>
+  <si>
+    <t>LAST_FIVE_TRANSACTIONS</t>
+  </si>
+  <si>
+    <t>Last Recharge Date</t>
+  </si>
+  <si>
+    <t>LAST_RECHARGE_DATE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/recharge/history.result[0].dateTime</t>
+  </si>
+  <si>
+    <t>LAST_RECHARGE_VALUE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/recharge/history.result[0].charges</t>
+  </si>
+  <si>
+    <t>Last Transaction Amount</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_AMOUNT</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].amount</t>
+  </si>
+  <si>
+    <t>Last Transaction Id</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_ID</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].transactionId</t>
+  </si>
+  <si>
+    <t>Last Transaction Msisdn</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_MSISDN</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].msisdn</t>
+  </si>
+  <si>
+    <t>National Id</t>
+  </si>
+  <si>
+    <t>NATIONAL_ID</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.identificationNo</t>
+  </si>
+  <si>
+    <t>Register Id</t>
+  </si>
+  <si>
+    <t>REGISTERED_ID</t>
+  </si>
+  <si>
+    <t>Two Last Dialled Number</t>
+  </si>
+  <si>
+    <t>TWO_LAST_DIALLED_NUMBER</t>
+  </si>
+  <si>
+    <t>AM Wallet Balance</t>
+  </si>
+  <si>
+    <t>WALLET_BALANCE</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2194,7 +2346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2267,21 +2419,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2293,7 +2430,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
@@ -2342,12 +2479,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2378,37 +2509,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal 5" xfId="1"/>
-    <cellStyle name="Normal 6" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
-  <dxfs count="66">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="64">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3077,7 +3201,7 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3120,7 +3244,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3163,7 +3287,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3206,7 +3330,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3501,62 +3625,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q1"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="38" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="11" t="s">
@@ -3566,7 +3691,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>23103239</v>
       </c>
@@ -3579,24 +3704,24 @@
       <c r="D2">
         <v>334705780</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="40" t="s">
         <v>663</v>
       </c>
       <c r="O2" t="s">
         <v>113</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="40" t="s">
         <v>664</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="40" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2390495</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="39" t="s">
         <v>661</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -3605,19 +3730,19 @@
       <c r="D3">
         <v>334705780</v>
       </c>
-      <c r="P3" s="42" t="s">
-        <v>665</v>
-      </c>
-      <c r="Q3" s="42" t="s">
+      <c r="P3" s="40" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q3" s="40" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2396518</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>668</v>
+      <c r="B4" s="39" t="s">
+        <v>665</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>156</v>
@@ -3625,14 +3750,14 @@
       <c r="D4">
         <v>334705780</v>
       </c>
-      <c r="P4" s="42" t="s">
-        <v>666</v>
-      </c>
-      <c r="Q4" s="42" t="s">
+      <c r="P4" s="40" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q4" s="40" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>23103239</v>
       </c>
@@ -3645,10 +3770,10 @@
       <c r="D5">
         <v>334705780</v>
       </c>
-      <c r="P5" s="42" t="s">
-        <v>667</v>
-      </c>
-      <c r="Q5" s="42" t="s">
+      <c r="P5" s="40" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q5" s="40" t="s">
         <v>663</v>
       </c>
     </row>
@@ -3658,16 +3783,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>101</v>
       </c>
@@ -3678,7 +3803,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>507</v>
       </c>
@@ -3687,7 +3812,7 @@
       </c>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>508</v>
       </c>
@@ -3696,7 +3821,7 @@
       </c>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>510</v>
       </c>
@@ -3705,7 +3830,7 @@
       </c>
       <c r="C4" s="11"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>511</v>
       </c>
@@ -3714,7 +3839,7 @@
       </c>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>512</v>
       </c>
@@ -3731,16 +3856,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>104</v>
       </c>
@@ -3748,7 +3873,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>106</v>
       </c>
@@ -3756,7 +3881,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>108</v>
       </c>
@@ -3764,7 +3889,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>110</v>
       </c>
@@ -3772,19 +3897,19 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>114</v>
       </c>
@@ -3796,16 +3921,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>115</v>
       </c>
@@ -3822,7 +3947,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>417</v>
       </c>
@@ -3839,7 +3964,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>420</v>
       </c>
@@ -3856,7 +3981,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>422</v>
       </c>
@@ -3873,7 +3998,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>425</v>
       </c>
@@ -3890,7 +4015,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>428</v>
       </c>
@@ -3907,7 +4032,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>430</v>
       </c>
@@ -3924,7 +4049,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
         <v>432</v>
       </c>
@@ -3941,7 +4066,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>434</v>
       </c>
@@ -3958,7 +4083,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>436</v>
       </c>
@@ -3975,7 +4100,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>438</v>
       </c>
@@ -3992,7 +4117,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>440</v>
       </c>
@@ -4009,7 +4134,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>442</v>
       </c>
@@ -4026,7 +4151,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
         <v>445</v>
       </c>
@@ -4043,7 +4168,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>448</v>
       </c>
@@ -4060,7 +4185,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>450</v>
       </c>
@@ -4077,7 +4202,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>452</v>
       </c>
@@ -4094,7 +4219,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>455</v>
       </c>
@@ -4111,7 +4236,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>457</v>
       </c>
@@ -4128,7 +4253,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>459</v>
       </c>
@@ -4145,7 +4270,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>461</v>
       </c>
@@ -4168,16 +4293,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>120</v>
       </c>
@@ -4218,86 +4343,106 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="C2" s="11">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="11" t="s">
         <v>529</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="11" t="s">
         <v>530</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="11" t="s">
         <v>531</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="11" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+      <c r="A3" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="C3" s="11">
+        <v>3</v>
+      </c>
+      <c r="D3" s="42" t="s">
         <v>525</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="42" t="s">
         <v>533</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="42" t="s">
         <v>536</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="G3" s="42" t="s">
         <v>537</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="H3" s="42" t="s">
         <v>538</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="I3" s="42" t="s">
         <v>539</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-    </row>
-    <row r="4" spans="1:13" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+      <c r="A4" s="42" t="s">
         <v>540</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="C4" s="11">
+        <v>3</v>
+      </c>
+      <c r="D4" s="42" t="s">
         <v>525</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="E4" s="43" t="s">
         <v>541</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="F4" s="42" t="s">
         <v>538</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4305,68 +4450,249 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection sqref="A1:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="45" t="s">
+        <v>667</v>
+      </c>
+      <c r="I1" s="45" t="s">
         <v>670</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="J1" s="46" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>669</v>
-      </c>
-      <c r="H3" s="42" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="47" t="s">
+        <v>668</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>668</v>
+      </c>
+      <c r="J3" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
         <v>672</v>
       </c>
-      <c r="I3" s="42" t="s">
-        <v>672</v>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="44" t="s">
+        <v>673</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="44" t="s">
+        <v>674</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="44" t="s">
+        <v>675</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="44" t="s">
+        <v>676</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="44" t="s">
+        <v>677</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="44" t="s">
+        <v>678</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="44" t="s">
+        <v>679</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="44" t="s">
+        <v>680</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="44" t="s">
+        <v>681</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4375,16 +4701,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>143</v>
       </c>
@@ -4419,158 +4745,338 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>507</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="30" t="s">
         <v>508</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="30" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>507</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="30" t="s">
         <v>508</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="30" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>507</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="30" t="s">
         <v>508</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="30" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>507</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="30" t="s">
         <v>508</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="30" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="30" t="s">
         <v>507</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="30" t="s">
         <v>508</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="30" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>507</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="30" t="s">
         <v>508</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="30" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>507</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="30" t="s">
         <v>508</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="30" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="30" t="s">
         <v>507</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="30" t="s">
         <v>508</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="30" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="30" t="s">
         <v>507</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="30" t="s">
         <v>508</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="30" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
         <v>553</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="30" t="s">
         <v>507</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="30" t="s">
         <v>508</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="30" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
         <v>548</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="30" t="s">
         <v>507</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="30" t="s">
         <v>508</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="30" t="s">
         <v>510</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB483B4-A36D-4A4B-82E1-2C96D8AE4D09}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.1640625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="40" style="32" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="C6" s="48"/>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="C13" s="48"/>
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="C14" s="48"/>
+    </row>
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>722</v>
       </c>
     </row>
   </sheetData>
@@ -4579,46 +5085,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
@@ -4629,19 +5135,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection sqref="A1:M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
@@ -4669,10 +5175,10 @@
       <c r="I1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="35" t="s">
         <v>589</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="35" t="s">
         <v>590</v>
       </c>
       <c r="L1" s="11" t="s">
@@ -4682,11 +5188,11 @@
         <v>592</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="36" t="s">
         <v>593</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -4709,7 +5215,7 @@
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>36</v>
       </c>
@@ -4736,7 +5242,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>41</v>
       </c>
@@ -4749,7 +5255,7 @@
       <c r="D4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="36" t="s">
         <v>595</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -4763,7 +5269,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>43</v>
       </c>
@@ -4796,7 +5302,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
@@ -4821,7 +5327,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>51</v>
       </c>
@@ -4846,7 +5352,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>53</v>
       </c>
@@ -4873,7 +5379,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5406,8 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="35" t="s">
         <v>596</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -4927,8 +5433,8 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="35" t="s">
         <v>601</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -4954,8 +5460,8 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="35" t="s">
         <v>607</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -4985,7 +5491,7 @@
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>615</v>
       </c>
@@ -5010,8 +5516,8 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
         <v>620</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -5020,35 +5526,35 @@
       <c r="C14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="36" t="s">
         <v>621</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="35" t="s">
         <v>622</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="35" t="s">
         <v>623</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="37" t="s">
+      <c r="J14" s="35" t="s">
         <v>624</v>
       </c>
-      <c r="K14" s="37" t="s">
+      <c r="K14" s="35" t="s">
         <v>48</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
         <v>625</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -5057,10 +5563,10 @@
       <c r="C15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="35" t="s">
         <v>626</v>
       </c>
       <c r="F15" s="11" t="s">
@@ -5078,8 +5584,8 @@
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
         <v>628</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -5103,20 +5609,20 @@
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
         <v>632</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="35" t="s">
         <v>633</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="35" t="s">
         <v>634</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="35" t="s">
         <v>635</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="35" t="s">
         <v>636</v>
       </c>
       <c r="F17" s="11"/>
@@ -5128,20 +5634,20 @@
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="35" t="s">
         <v>637</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="35" t="s">
         <v>638</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="35" t="s">
         <v>639</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="35" t="s">
         <v>640</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="35" t="s">
         <v>641</v>
       </c>
       <c r="F18" s="11" t="s">
@@ -5155,49 +5661,49 @@
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
     </row>
-    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+    <row r="19" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="35" t="s">
         <v>642</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="36" t="s">
         <v>655</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="35" t="s">
         <v>643</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="35" t="s">
         <v>644</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="35" t="s">
         <v>645</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="35" t="s">
         <v>646</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="H19" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="37" t="s">
         <v>656</v>
       </c>
-      <c r="J19" s="39" t="s">
+      <c r="J19" s="37" t="s">
         <v>657</v>
       </c>
-      <c r="K19" s="39" t="s">
+      <c r="K19" s="37" t="s">
         <v>658</v>
       </c>
-      <c r="L19" s="37" t="s">
+      <c r="L19" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="M19" s="37" t="s">
+      <c r="M19" s="35" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="35" t="s">
         <v>648</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -5206,16 +5712,16 @@
       <c r="C20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="35" t="s">
         <v>650</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="35" t="s">
         <v>651</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="35" t="s">
         <v>652</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="35" t="s">
         <v>653</v>
       </c>
       <c r="H20" s="11"/>
@@ -5232,83 +5738,83 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:BH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AY3" sqref="AY3"/>
+      <selection activeCell="AM9" sqref="AM9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="T1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="U1" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="V1" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="W1" s="31" t="s">
         <v>68</v>
       </c>
       <c r="X1" t="s">
@@ -5320,58 +5826,58 @@
       <c r="Z1" t="s">
         <v>68</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AA1" s="31" t="s">
         <v>556</v>
       </c>
-      <c r="AB1" s="33" t="s">
+      <c r="AB1" s="31" t="s">
         <v>557</v>
       </c>
-      <c r="AC1" s="33" t="s">
+      <c r="AC1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AD1" s="31" t="s">
         <v>558</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AE1" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="AF1" s="33" t="s">
+      <c r="AF1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AG1" s="33" t="s">
+      <c r="AG1" s="31" t="s">
         <v>559</v>
       </c>
-      <c r="AH1" s="33" t="s">
+      <c r="AH1" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="AI1" s="33" t="s">
+      <c r="AI1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AJ1" s="33" t="s">
+      <c r="AJ1" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="AK1" s="33" t="s">
+      <c r="AK1" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="AL1" s="33" t="s">
+      <c r="AL1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AM1" s="33" t="s">
+      <c r="AM1" s="31" t="s">
         <v>561</v>
       </c>
-      <c r="AN1" s="33" t="s">
+      <c r="AN1" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AO1" s="33" t="s">
+      <c r="AO1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AP1" s="33" t="s">
+      <c r="AP1" s="31" t="s">
         <v>562</v>
       </c>
-      <c r="AQ1" s="33" t="s">
+      <c r="AQ1" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AR1" s="33" t="s">
+      <c r="AR1" s="31" t="s">
         <v>68</v>
       </c>
       <c r="AS1" t="s">
@@ -5419,9 +5925,9 @@
       <c r="BG1" t="s">
         <v>92</v>
       </c>
-      <c r="BH1" s="34"/>
-    </row>
-    <row r="2" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH1" s="32"/>
+    </row>
+    <row r="2" spans="1:60" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>413</v>
       </c>
@@ -5480,143 +5986,25 @@
         <v>506</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="F3" t="s">
-        <v>469</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>464</v>
-      </c>
-      <c r="I3" t="s">
-        <v>470</v>
-      </c>
-      <c r="J3" t="s">
-        <v>466</v>
-      </c>
-      <c r="K3" t="s">
-        <v>467</v>
-      </c>
-      <c r="L3" t="s">
-        <v>471</v>
-      </c>
-      <c r="M3" t="s">
-        <v>463</v>
-      </c>
-      <c r="N3" t="s">
-        <v>464</v>
-      </c>
-      <c r="AV3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="AW3" s="14">
-        <v>8</v>
-      </c>
-      <c r="BD3" s="14">
-        <v>8</v>
-      </c>
-      <c r="BE3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="BF3" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="F4" t="s">
-        <v>469</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>464</v>
-      </c>
-      <c r="I4" t="s">
-        <v>471</v>
-      </c>
-      <c r="J4" t="s">
-        <v>463</v>
-      </c>
-      <c r="K4" t="s">
-        <v>464</v>
-      </c>
-      <c r="L4" t="s">
-        <v>472</v>
-      </c>
-      <c r="M4" t="s">
-        <v>463</v>
-      </c>
-      <c r="N4" t="s">
-        <v>464</v>
-      </c>
-      <c r="AV4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="AW4" s="14">
-        <v>8</v>
-      </c>
-      <c r="BD4" s="14">
-        <v>8</v>
-      </c>
-      <c r="BE4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="BF4" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E4">
-    <cfRule type="duplicateValues" dxfId="65" priority="1"/>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="duplicateValues" dxfId="63" priority="61"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>62</v>
       </c>
@@ -5636,7 +6024,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>160</v>
       </c>
@@ -5654,49 +6042,7 @@
       </c>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="20"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="64" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="63" priority="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E2">
     <cfRule type="duplicateValues" dxfId="62" priority="3"/>
   </conditionalFormatting>
@@ -5705,83 +6051,83 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BH21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:60" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:60" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="T1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="U1" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="V1" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="W1" s="31" t="s">
         <v>68</v>
       </c>
       <c r="X1" t="s">
@@ -5793,58 +6139,58 @@
       <c r="Z1" t="s">
         <v>68</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AA1" s="31" t="s">
         <v>556</v>
       </c>
-      <c r="AB1" s="33" t="s">
+      <c r="AB1" s="31" t="s">
         <v>557</v>
       </c>
-      <c r="AC1" s="33" t="s">
+      <c r="AC1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AD1" s="31" t="s">
         <v>558</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AE1" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="AF1" s="33" t="s">
+      <c r="AF1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AG1" s="33" t="s">
+      <c r="AG1" s="31" t="s">
         <v>559</v>
       </c>
-      <c r="AH1" s="33" t="s">
+      <c r="AH1" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="AI1" s="33" t="s">
+      <c r="AI1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AJ1" s="33" t="s">
+      <c r="AJ1" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="AK1" s="33" t="s">
+      <c r="AK1" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="AL1" s="33" t="s">
+      <c r="AL1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AM1" s="33" t="s">
+      <c r="AM1" s="31" t="s">
         <v>561</v>
       </c>
-      <c r="AN1" s="33" t="s">
+      <c r="AN1" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AO1" s="33" t="s">
+      <c r="AO1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="AP1" s="33" t="s">
+      <c r="AP1" s="31" t="s">
         <v>562</v>
       </c>
-      <c r="AQ1" s="33" t="s">
+      <c r="AQ1" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AR1" s="33" t="s">
+      <c r="AR1" s="31" t="s">
         <v>68</v>
       </c>
       <c r="AS1" t="s">
@@ -5892,9 +6238,9 @@
       <c r="BG1" t="s">
         <v>92</v>
       </c>
-      <c r="BH1" s="34"/>
-    </row>
-    <row r="2" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH1" s="32"/>
+    </row>
+    <row r="2" spans="1:60" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>413</v>
       </c>
@@ -5953,7 +6299,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="3" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>413</v>
       </c>
@@ -6012,7 +6358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>413</v>
       </c>
@@ -6071,7 +6417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>413</v>
       </c>
@@ -6130,7 +6476,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>413</v>
       </c>
@@ -6180,7 +6526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>413</v>
       </c>
@@ -6239,7 +6585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>413</v>
       </c>
@@ -6289,7 +6635,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="9" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>413</v>
       </c>
@@ -6339,7 +6685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>413</v>
       </c>
@@ -6389,7 +6735,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="11" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:60" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>413</v>
       </c>
@@ -6448,7 +6794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>413</v>
       </c>
@@ -6507,7 +6853,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="13" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:60" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>413</v>
       </c>
@@ -6548,7 +6894,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="14" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:60" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>413</v>
       </c>
@@ -6607,7 +6953,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:60" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>413</v>
       </c>
@@ -6666,7 +7012,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="16" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:60" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>413</v>
       </c>
@@ -6725,7 +7071,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="17" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:58" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>413</v>
       </c>
@@ -6775,7 +7121,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="18" spans="1:58" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:58" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>413</v>
       </c>
@@ -6834,7 +7180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:58" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:58" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>413</v>
       </c>
@@ -6893,7 +7239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:58" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:58" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>413</v>
       </c>
@@ -6934,7 +7280,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="21" spans="1:58" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:58" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>413</v>
       </c>
@@ -7002,19 +7348,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>62</v>
       </c>
@@ -7034,7 +7380,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>160</v>
       </c>
@@ -7052,7 +7398,7 @@
       </c>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>160</v>
       </c>
@@ -7070,7 +7416,7 @@
       </c>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>160</v>
       </c>
@@ -7088,7 +7434,7 @@
       </c>
       <c r="F4" s="20"/>
     </row>
-    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>161</v>
       </c>
@@ -7106,7 +7452,7 @@
       </c>
       <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>161</v>
       </c>
@@ -7124,7 +7470,7 @@
       </c>
       <c r="F6" s="21"/>
     </row>
-    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>161</v>
       </c>
@@ -7142,7 +7488,7 @@
       </c>
       <c r="F7" s="21"/>
     </row>
-    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>161</v>
       </c>
@@ -7160,7 +7506,7 @@
       </c>
       <c r="F8" s="21"/>
     </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>162</v>
       </c>
@@ -7180,7 +7526,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>162</v>
       </c>
@@ -7198,7 +7544,7 @@
       </c>
       <c r="F10" s="21"/>
     </row>
-    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>163</v>
       </c>
@@ -7216,7 +7562,7 @@
       </c>
       <c r="F11" s="21"/>
     </row>
-    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>163</v>
       </c>
@@ -7234,7 +7580,7 @@
       </c>
       <c r="F12" s="21"/>
     </row>
-    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>163</v>
       </c>
@@ -7252,7 +7598,7 @@
       </c>
       <c r="F13" s="21"/>
     </row>
-    <row r="14" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>163</v>
       </c>
@@ -7270,7 +7616,7 @@
       </c>
       <c r="F14" s="21"/>
     </row>
-    <row r="15" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>160</v>
       </c>
@@ -7290,7 +7636,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>160</v>
       </c>
@@ -7308,7 +7654,7 @@
       </c>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>160</v>
       </c>
@@ -7326,7 +7672,7 @@
       </c>
       <c r="F17" s="20"/>
     </row>
-    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>160</v>
       </c>
@@ -7344,7 +7690,7 @@
       </c>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>160</v>
       </c>
@@ -7362,7 +7708,7 @@
       </c>
       <c r="F19" s="20"/>
     </row>
-    <row r="20" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>160</v>
       </c>
@@ -7380,7 +7726,7 @@
       </c>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>160</v>
       </c>
@@ -7398,7 +7744,7 @@
       </c>
       <c r="F21" s="20"/>
     </row>
-    <row r="22" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>164</v>
       </c>
@@ -7416,7 +7762,7 @@
       </c>
       <c r="F22" s="21"/>
     </row>
-    <row r="23" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>163</v>
       </c>
@@ -7436,7 +7782,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>163</v>
       </c>
@@ -7454,7 +7800,7 @@
       </c>
       <c r="F24" s="21"/>
     </row>
-    <row r="25" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>163</v>
       </c>
@@ -7472,7 +7818,7 @@
       </c>
       <c r="F25" s="21"/>
     </row>
-    <row r="26" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>160</v>
       </c>
@@ -7490,7 +7836,7 @@
       </c>
       <c r="F26" s="20"/>
     </row>
-    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>161</v>
       </c>
@@ -7508,7 +7854,7 @@
       </c>
       <c r="F27" s="21"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>161</v>
       </c>
@@ -7526,7 +7872,7 @@
       </c>
       <c r="F28" s="21"/>
     </row>
-    <row r="29" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>163</v>
       </c>
@@ -7544,7 +7890,7 @@
       </c>
       <c r="F29" s="21"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>160</v>
       </c>
@@ -7562,7 +7908,7 @@
       </c>
       <c r="F30" s="20"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>161</v>
       </c>
@@ -7580,7 +7926,7 @@
       </c>
       <c r="F31" s="21"/>
     </row>
-    <row r="32" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>161</v>
       </c>
@@ -7598,7 +7944,7 @@
       </c>
       <c r="F32" s="21"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>161</v>
       </c>
@@ -7616,7 +7962,7 @@
       </c>
       <c r="F33" s="21"/>
     </row>
-    <row r="34" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>161</v>
       </c>
@@ -7634,7 +7980,7 @@
       </c>
       <c r="F34" s="21"/>
     </row>
-    <row r="35" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>161</v>
       </c>
@@ -7652,7 +7998,7 @@
       </c>
       <c r="F35" s="21"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>162</v>
       </c>
@@ -7670,7 +8016,7 @@
       </c>
       <c r="F36" s="21"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>162</v>
       </c>
@@ -7688,7 +8034,7 @@
       </c>
       <c r="F37" s="21"/>
     </row>
-    <row r="38" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="75" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>162</v>
       </c>
@@ -7706,7 +8052,7 @@
       </c>
       <c r="F38" s="21"/>
     </row>
-    <row r="39" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>163</v>
       </c>
@@ -7724,7 +8070,7 @@
       </c>
       <c r="F39" s="21"/>
     </row>
-    <row r="40" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>163</v>
       </c>
@@ -7742,7 +8088,7 @@
       </c>
       <c r="F40" s="21"/>
     </row>
-    <row r="41" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>163</v>
       </c>
@@ -7760,7 +8106,7 @@
       </c>
       <c r="F41" s="21"/>
     </row>
-    <row r="42" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>160</v>
       </c>
@@ -7778,7 +8124,7 @@
       </c>
       <c r="F42" s="20"/>
     </row>
-    <row r="43" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>160</v>
       </c>
@@ -7798,7 +8144,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>160</v>
       </c>
@@ -7818,7 +8164,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>160</v>
       </c>
@@ -7836,7 +8182,7 @@
       </c>
       <c r="F45" s="22"/>
     </row>
-    <row r="46" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>160</v>
       </c>
@@ -7856,7 +8202,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>160</v>
       </c>
@@ -7874,7 +8220,7 @@
       </c>
       <c r="F47" s="20"/>
     </row>
-    <row r="48" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>160</v>
       </c>
@@ -7892,7 +8238,7 @@
       </c>
       <c r="F48" s="20"/>
     </row>
-    <row r="49" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>160</v>
       </c>
@@ -7910,7 +8256,7 @@
       </c>
       <c r="F49" s="20"/>
     </row>
-    <row r="50" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>160</v>
       </c>
@@ -7928,7 +8274,7 @@
       </c>
       <c r="F50" s="20"/>
     </row>
-    <row r="51" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
         <v>160</v>
       </c>
@@ -7946,7 +8292,7 @@
       </c>
       <c r="F51" s="20"/>
     </row>
-    <row r="52" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
         <v>160</v>
       </c>
@@ -7964,7 +8310,7 @@
       </c>
       <c r="F52" s="20"/>
     </row>
-    <row r="53" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>160</v>
       </c>
@@ -7982,7 +8328,7 @@
       </c>
       <c r="F53" s="20"/>
     </row>
-    <row r="54" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
         <v>160</v>
       </c>
@@ -8000,7 +8346,7 @@
       </c>
       <c r="F54" s="20"/>
     </row>
-    <row r="55" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>160</v>
       </c>
@@ -8018,7 +8364,7 @@
       </c>
       <c r="F55" s="20"/>
     </row>
-    <row r="56" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
         <v>161</v>
       </c>
@@ -8036,7 +8382,7 @@
       </c>
       <c r="F56" s="21"/>
     </row>
-    <row r="57" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>161</v>
       </c>
@@ -8054,7 +8400,7 @@
       </c>
       <c r="F57" s="21"/>
     </row>
-    <row r="58" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
         <v>161</v>
       </c>
@@ -8072,7 +8418,7 @@
       </c>
       <c r="F58" s="21"/>
     </row>
-    <row r="59" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
         <v>161</v>
       </c>
@@ -8090,7 +8436,7 @@
       </c>
       <c r="F59" s="21"/>
     </row>
-    <row r="60" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
         <v>161</v>
       </c>
@@ -8108,7 +8454,7 @@
       </c>
       <c r="F60" s="21"/>
     </row>
-    <row r="61" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
         <v>160</v>
       </c>
@@ -8126,7 +8472,7 @@
       </c>
       <c r="F61" s="21"/>
     </row>
-    <row r="62" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
         <v>163</v>
       </c>
@@ -8144,7 +8490,7 @@
       </c>
       <c r="F62" s="21"/>
     </row>
-    <row r="63" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
         <v>163</v>
       </c>
@@ -8162,7 +8508,7 @@
       </c>
       <c r="F63" s="21"/>
     </row>
-    <row r="64" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
         <v>163</v>
       </c>
@@ -8180,7 +8526,7 @@
       </c>
       <c r="F64" s="21"/>
     </row>
-    <row r="65" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
         <v>163</v>
       </c>
@@ -8198,7 +8544,7 @@
       </c>
       <c r="F65" s="21"/>
     </row>
-    <row r="66" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
         <v>163</v>
       </c>
@@ -8216,7 +8562,7 @@
       </c>
       <c r="F66" s="21"/>
     </row>
-    <row r="67" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
         <v>163</v>
       </c>
@@ -8234,7 +8580,7 @@
       </c>
       <c r="F67" s="21"/>
     </row>
-    <row r="68" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
         <v>163</v>
       </c>
@@ -8252,7 +8598,7 @@
       </c>
       <c r="F68" s="21"/>
     </row>
-    <row r="69" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
         <v>163</v>
       </c>
@@ -8272,7 +8618,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>163</v>
       </c>
@@ -8292,7 +8638,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
         <v>163</v>
       </c>
@@ -8312,7 +8658,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
         <v>161</v>
       </c>
@@ -8330,7 +8676,7 @@
       </c>
       <c r="F72" s="21"/>
     </row>
-    <row r="73" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
         <v>161</v>
       </c>
@@ -8348,7 +8694,7 @@
       </c>
       <c r="F73" s="21"/>
     </row>
-    <row r="74" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
         <v>161</v>
       </c>
@@ -8366,7 +8712,7 @@
       </c>
       <c r="F74" s="21"/>
     </row>
-    <row r="75" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
         <v>160</v>
       </c>
@@ -8384,7 +8730,7 @@
       </c>
       <c r="F75" s="20"/>
     </row>
-    <row r="76" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
         <v>160</v>
       </c>
@@ -8402,7 +8748,7 @@
       </c>
       <c r="F76" s="20"/>
     </row>
-    <row r="77" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>160</v>
       </c>
@@ -8422,7 +8768,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
         <v>163</v>
       </c>
@@ -8442,7 +8788,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
         <v>164</v>
       </c>
@@ -8460,7 +8806,7 @@
       </c>
       <c r="F79" s="21"/>
     </row>
-    <row r="80" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
         <v>160</v>
       </c>
@@ -8478,7 +8824,7 @@
       </c>
       <c r="F80" s="21"/>
     </row>
-    <row r="81" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
         <v>162</v>
       </c>
@@ -8496,7 +8842,7 @@
       </c>
       <c r="F81" s="21"/>
     </row>
-    <row r="82" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
         <v>160</v>
       </c>
@@ -8516,7 +8862,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
         <v>160</v>
       </c>
@@ -8534,7 +8880,7 @@
       </c>
       <c r="F83" s="20"/>
     </row>
-    <row r="84" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
         <v>160</v>
       </c>
@@ -8552,7 +8898,7 @@
       </c>
       <c r="F84" s="20"/>
     </row>
-    <row r="85" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
         <v>164</v>
       </c>
@@ -8570,7 +8916,7 @@
       </c>
       <c r="F85" s="21"/>
     </row>
-    <row r="86" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
         <v>163</v>
       </c>
@@ -8588,7 +8934,7 @@
       </c>
       <c r="F86" s="21"/>
     </row>
-    <row r="87" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
         <v>160</v>
       </c>
@@ -8606,7 +8952,7 @@
       </c>
       <c r="F87" s="20"/>
     </row>
-    <row r="88" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
         <v>160</v>
       </c>
@@ -8624,7 +8970,7 @@
       </c>
       <c r="F88" s="20"/>
     </row>
-    <row r="89" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
         <v>160</v>
       </c>
@@ -8642,7 +8988,7 @@
       </c>
       <c r="F89" s="20"/>
     </row>
-    <row r="90" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
         <v>161</v>
       </c>
@@ -8660,7 +9006,7 @@
       </c>
       <c r="F90" s="21"/>
     </row>
-    <row r="91" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
         <v>161</v>
       </c>
@@ -8678,7 +9024,7 @@
       </c>
       <c r="F91" s="21"/>
     </row>
-    <row r="92" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
         <v>161</v>
       </c>
@@ -8696,7 +9042,7 @@
       </c>
       <c r="F92" s="21"/>
     </row>
-    <row r="93" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
         <v>161</v>
       </c>
@@ -8714,7 +9060,7 @@
       </c>
       <c r="F93" s="21"/>
     </row>
-    <row r="94" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
         <v>161</v>
       </c>
@@ -8732,7 +9078,7 @@
       </c>
       <c r="F94" s="21"/>
     </row>
-    <row r="95" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
         <v>161</v>
       </c>
@@ -8750,7 +9096,7 @@
       </c>
       <c r="F95" s="21"/>
     </row>
-    <row r="96" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
         <v>161</v>
       </c>
@@ -8768,7 +9114,7 @@
       </c>
       <c r="F96" s="21"/>
     </row>
-    <row r="97" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
         <v>161</v>
       </c>
@@ -8786,7 +9132,7 @@
       </c>
       <c r="F97" s="21"/>
     </row>
-    <row r="98" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
         <v>161</v>
       </c>
@@ -8804,7 +9150,7 @@
       </c>
       <c r="F98" s="21"/>
     </row>
-    <row r="99" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
         <v>161</v>
       </c>
@@ -8822,7 +9168,7 @@
       </c>
       <c r="F99" s="21"/>
     </row>
-    <row r="100" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
         <v>161</v>
       </c>
@@ -8840,7 +9186,7 @@
       </c>
       <c r="F100" s="21"/>
     </row>
-    <row r="101" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
         <v>163</v>
       </c>
@@ -8858,7 +9204,7 @@
       </c>
       <c r="F101" s="21"/>
     </row>
-    <row r="102" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
         <v>161</v>
       </c>
@@ -8876,7 +9222,7 @@
       </c>
       <c r="F102" s="21"/>
     </row>
-    <row r="103" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
         <v>161</v>
       </c>
@@ -8894,7 +9240,7 @@
       </c>
       <c r="F103" s="21"/>
     </row>
-    <row r="104" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
         <v>161</v>
       </c>
@@ -8912,7 +9258,7 @@
       </c>
       <c r="F104" s="21"/>
     </row>
-    <row r="105" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
         <v>161</v>
       </c>
@@ -8930,7 +9276,7 @@
       </c>
       <c r="F105" s="21"/>
     </row>
-    <row r="106" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
         <v>161</v>
       </c>
@@ -8948,7 +9294,7 @@
       </c>
       <c r="F106" s="21"/>
     </row>
-    <row r="107" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
         <v>584</v>
       </c>
@@ -8961,11 +9307,11 @@
       <c r="D107" s="15" t="s">
         <v>573</v>
       </c>
-      <c r="E107" s="35" t="s">
+      <c r="E107" s="33" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
         <v>584</v>
       </c>
@@ -8978,11 +9324,11 @@
       <c r="D108" s="15" t="s">
         <v>574</v>
       </c>
-      <c r="E108" s="35" t="s">
+      <c r="E108" s="33" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
         <v>584</v>
       </c>
@@ -8995,11 +9341,11 @@
       <c r="D109" s="15" t="s">
         <v>575</v>
       </c>
-      <c r="E109" s="35" t="s">
+      <c r="E109" s="33" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
         <v>584</v>
       </c>
@@ -9012,11 +9358,11 @@
       <c r="D110" s="15" t="s">
         <v>576</v>
       </c>
-      <c r="E110" s="35" t="s">
+      <c r="E110" s="33" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
         <v>584</v>
       </c>
@@ -9029,11 +9375,11 @@
       <c r="D111" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="E111" s="35" t="s">
+      <c r="E111" s="33" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
         <v>584</v>
       </c>
@@ -9046,11 +9392,11 @@
       <c r="D112" s="15" t="s">
         <v>578</v>
       </c>
-      <c r="E112" s="35" t="s">
+      <c r="E112" s="33" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
         <v>584</v>
       </c>
@@ -9063,11 +9409,11 @@
       <c r="D113" s="15" t="s">
         <v>579</v>
       </c>
-      <c r="E113" s="35" t="s">
+      <c r="E113" s="33" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
         <v>584</v>
       </c>
@@ -9080,11 +9426,11 @@
       <c r="D114" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="E114" s="36" t="s">
+      <c r="E114" s="34" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
         <v>584</v>
       </c>
@@ -9097,11 +9443,11 @@
       <c r="D115" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="E115" s="36" t="s">
+      <c r="E115" s="34" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
         <v>584</v>
       </c>
@@ -9118,7 +9464,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
         <v>584</v>
       </c>
@@ -9321,16 +9667,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>94</v>
       </c>
@@ -9341,7 +9687,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>542</v>
       </c>
@@ -9352,18 +9698,18 @@
         <v>549</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="25" t="s">
         <v>498</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>544</v>
       </c>
@@ -9374,7 +9720,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>545</v>
       </c>
@@ -9385,7 +9731,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>547</v>
       </c>
@@ -9393,7 +9739,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>503</v>
       </c>
@@ -9401,7 +9747,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>31</v>
       </c>
@@ -9409,7 +9755,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>504</v>
       </c>
@@ -9417,7 +9763,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
         <v>546</v>
       </c>
@@ -9425,19 +9771,19 @@
         <v>552</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="26" t="s">
         <v>505</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="28" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="29" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="27" t="s">
         <v>548</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="29" t="s">
         <v>548</v>
       </c>
     </row>
@@ -9447,19 +9793,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>97</v>
       </c>
@@ -9472,8 +9818,11 @@
       <c r="D1" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="41" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>554</v>
       </c>
@@ -9486,8 +9835,11 @@
       <c r="D2">
         <v>334705780</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="40" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>555</v>
       </c>
@@ -9499,6 +9851,9 @@
       </c>
       <c r="D3">
         <v>334705780</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>664</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/MG.xlsx
+++ b/resources/excels/MG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B69447-5DDB-D947-8727-26F929A53C84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A5FAE7-0B1B-2546-8048-2C75CBC247BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="9340" firstSheet="5" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="Action Tagging" sheetId="14" r:id="rId14"/>
     <sheet name="State Queue Mapping" sheetId="15" r:id="rId15"/>
     <sheet name="QuestionAnswerKey" sheetId="16" r:id="rId16"/>
+    <sheet name="OpenAPILoginSheet" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="730">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2213,13 +2214,34 @@
   </si>
   <si>
     <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>API Type</t>
+  </si>
+  <si>
+    <t>Rest API</t>
+  </si>
+  <si>
+    <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/w3AjioDsIHk34HzJaReuqYUcHmN0KtpzrDoIHQ0cD0obcoZSykDm5lk55QPMbd20Vn3ZBFMDN4F9BYfxy98fwZXs+aUvM7wF6m2qunUhETMXh6NdTHBuJKtUMH7IE46UYg9h8k7UmWW8KkVjoyNuMii7OQUy6vMr+Y8CA4XGdqvFJ7ro9d9G87RjRl2YU0JG45DWmhKrb+fz7znkk7Q3o5ON5BZMEp+CXZ3cj8FJB4N6EO5ZAt4mEHUqrT/EbzZbjOVRnkrYtjRtudTn2/lJGxLSGoSUIVwxVkOCeJIHQusqWsb5R+Jf85rTmsKp+F//RZ8VzDxhL318YW4mF+fJGFeH29eGKFcqbwSBeAjizIpjxK3O1qcayBK+W7aVcsVU/UAFui5pdaE5loXhJ3rtuPQ==</t>
+  </si>
+  <si>
+    <t>OpenAPIValidToken</t>
+  </si>
+  <si>
+    <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/w3AjioDsIHk34HzJaReuqYUcHmN0KtpzrDoIHQ0cD0obcoZSykDm5lk55QPMbd20Vn3ZBFMDN4F9BYfxy98fwZXs+aUvM7wF6m2qunUhETMXh6NdTHBuJKtUMH7IE46UYg9h8k7UmWW8KkVjoyNuMii7OQUy6vMr+Y8CA4XGdqvFJ7ro9d9G87RjRl2YU0JG45DWmhKrb+fz7znkk7Q3o5ON5BZMEp+CXZ3cj8FJB4N6EO5ZAt4mEHUqrT/EbzZbjOVRnkrYtjRtudTn2/lJGxLSGoSUIVwxVkOCeJIHQusqWsb5R+Jf85rTmsKp+F//RZ8VzDxhL318YW4mF+fJGFeH29eGKFcqbwSBeAjizIpjxK3O1qcayBK+W7aVcsVU/UAFui5pdaE5loXhJ3rtu</t>
+  </si>
+  <si>
+    <t>OpenApiInvalidToken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2297,6 +2319,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2430,7 +2459,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
@@ -2521,6 +2550,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4908,7 +4940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB483B4-A36D-4A4B-82E1-2C96D8AE4D09}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -5077,6 +5109,55 @@
       </c>
       <c r="C15" s="9" t="s">
         <v>722</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7261B41F-EB4F-0E4D-9021-FA5C9026526A}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="67.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="49" t="s">
+        <v>723</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="49" t="s">
+        <v>726</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="49" t="s">
+        <v>728</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>729</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/MG.xlsx
+++ b/resources/excels/MG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A5FAE7-0B1B-2546-8048-2C75CBC247BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E35B727-A1A5-1948-8ABD-61D4CEA3FE55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="7" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="State Queue Mapping" sheetId="15" r:id="rId15"/>
     <sheet name="QuestionAnswerKey" sheetId="16" r:id="rId16"/>
     <sheet name="OpenAPILoginSheet" sheetId="17" r:id="rId17"/>
+    <sheet name="OpenAPIClientConfig" sheetId="18" r:id="rId18"/>
+    <sheet name="ClientConfig" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="735">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2235,6 +2237,21 @@
   </si>
   <si>
     <t>OpenApiInvalidToken</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>customerMsisdn</t>
+  </si>
+  <si>
+    <t>First Category Level</t>
+  </si>
+  <si>
+    <t>Last Category Level</t>
+  </si>
+  <si>
+    <t>Service Complaint</t>
   </si>
 </sst>
 </file>
@@ -2459,7 +2476,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
@@ -2555,6 +2572,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
@@ -5120,7 +5138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7261B41F-EB4F-0E4D-9021-FA5C9026526A}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
@@ -5144,7 +5162,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
         <v>726</v>
       </c>
@@ -5152,12 +5170,93 @@
         <v>727</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
         <v>728</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>729</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5545B7-1C59-9046-9ECF-305DA5B6BF9D}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="50">
+        <v>767240995</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>731</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE11409-20B0-EC43-A72A-7DC51F5BC69A}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="50">
+        <v>1</v>
+      </c>
+      <c r="B2" s="50">
+        <v>5</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>734</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/MG.xlsx
+++ b/resources/excels/MG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E35B727-A1A5-1948-8ABD-61D4CEA3FE55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B91ACCE-639E-B04B-800F-814B443F8DA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="7" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="OpenAPILoginSheet" sheetId="17" r:id="rId17"/>
     <sheet name="OpenAPIClientConfig" sheetId="18" r:id="rId18"/>
     <sheet name="ClientConfig" sheetId="19" r:id="rId19"/>
+    <sheet name="AgentDetails" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="739">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2252,6 +2253,18 @@
   </si>
   <si>
     <t>Service Complaint</t>
+  </si>
+  <si>
+    <t>AgentId</t>
+  </si>
+  <si>
+    <t>AgentAuuid</t>
+  </si>
+  <si>
+    <t>AgentName</t>
+  </si>
+  <si>
+    <t>Ashwani Rao</t>
   </si>
 </sst>
 </file>
@@ -5226,7 +5239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE11409-20B0-EC43-A72A-7DC51F5BC69A}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -5307,6 +5320,41 @@
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F716F47-9256-004B-B7B8-227CD2B108D2}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
+        <v>735</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>736</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50">
+        <v>13221514</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>738</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/MG.xlsx
+++ b/resources/excels/MG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401002/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B91ACCE-639E-B04B-800F-814B443F8DA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B557296-07A3-574A-92C4-917128B0B16D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -4516,8 +4516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4723,7 +4723,7 @@
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
       <c r="J11" s="44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -5331,7 +5331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F716F47-9256-004B-B7B8-227CD2B108D2}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>

--- a/resources/excels/MG.xlsx
+++ b/resources/excels/MG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401002/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B557296-07A3-574A-92C4-917128B0B16D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF33263C-BFFA-E745-A062-02EE9FBC37A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="743">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2265,13 +2265,25 @@
   </si>
   <si>
     <t>Ashwani Rao</t>
+  </si>
+  <si>
+    <t>Last Data Bundle Recharge Amount in 2 months (Mandatory)</t>
+  </si>
+  <si>
+    <t>Question 11</t>
+  </si>
+  <si>
+    <t>Last Data Bundle Recharge Amount in 2 months</t>
+  </si>
+  <si>
+    <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2359,6 +2371,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2489,7 +2507,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
@@ -2586,6 +2604,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
@@ -4357,15 +4387,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>120</v>
       </c>
@@ -4405,8 +4435,11 @@
       <c r="M1" s="9" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="52" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>524</v>
       </c>
@@ -4425,7 +4458,7 @@
       <c r="F2" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="36" t="s">
         <v>528</v>
       </c>
       <c r="H2" s="11" t="s">
@@ -4443,11 +4476,14 @@
       <c r="L2" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="36" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+      <c r="N2" s="53" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="56" x14ac:dyDescent="0.2">
       <c r="A3" s="42" t="s">
         <v>535</v>
       </c>
@@ -4479,8 +4515,9 @@
       <c r="K3" s="42"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
-    </row>
-    <row r="4" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" ht="56" x14ac:dyDescent="0.2">
       <c r="A4" s="42" t="s">
         <v>540</v>
       </c>
@@ -4506,6 +4543,7 @@
       <c r="K4" s="42"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4516,7 +4554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
@@ -4969,10 +5007,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB483B4-A36D-4A4B-82E1-2C96D8AE4D09}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5141,6 +5179,15 @@
       <c r="C15" s="9" t="s">
         <v>722</v>
       </c>
+    </row>
+    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="51" t="s">
+        <v>741</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>742</v>
+      </c>
+      <c r="C16" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/excels/MG.xlsx
+++ b/resources/excels/MG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF33263C-BFFA-E745-A062-02EE9FBC37A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E2C72E-7308-1048-955F-9E3C96FA468E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="742">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1852,21 +1852,9 @@
     <t>Loan Details</t>
   </si>
   <si>
-    <t>Total Loan Eligibility</t>
-  </si>
-  <si>
-    <t>Number of Loan Taken</t>
-  </si>
-  <si>
     <t>Total Loan Amount</t>
   </si>
   <si>
-    <t>Total Loan Paid</t>
-  </si>
-  <si>
-    <t>Total Current Outstanding</t>
-  </si>
-  <si>
     <t>Loan History</t>
   </si>
   <si>
@@ -1886,9 +1874,6 @@
   </si>
   <si>
     <t>Loan Type</t>
-  </si>
-  <si>
-    <t>Date Created</t>
   </si>
   <si>
     <t>Loan Recoveries</t>
@@ -2277,6 +2262,18 @@
   </si>
   <si>
     <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
+  </si>
+  <si>
+    <t>Loan ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Loan Eligibility </t>
+  </si>
+  <si>
+    <t>Count Of Events</t>
+  </si>
+  <si>
+    <t>Loan Paid</t>
   </si>
 </sst>
 </file>
@@ -2507,7 +2504,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
@@ -2616,6 +2613,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
@@ -3778,10 +3776,10 @@
         <v>14</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -3789,7 +3787,7 @@
         <v>23103239</v>
       </c>
       <c r="B2" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>154</v>
@@ -3798,16 +3796,16 @@
         <v>334705780</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="O2" t="s">
         <v>113</v>
       </c>
       <c r="P2" s="40" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="Q2" s="40" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -3815,7 +3813,7 @@
         <v>2390495</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>155</v>
@@ -3824,10 +3822,10 @@
         <v>334705780</v>
       </c>
       <c r="P3" s="40" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="Q3" s="40" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -3835,7 +3833,7 @@
         <v>2396518</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>156</v>
@@ -3844,10 +3842,10 @@
         <v>334705780</v>
       </c>
       <c r="P4" s="40" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="Q4" s="40" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -3855,7 +3853,7 @@
         <v>23103239</v>
       </c>
       <c r="B5" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>157</v>
@@ -3864,10 +3862,10 @@
         <v>334705780</v>
       </c>
       <c r="P5" s="40" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="Q5" s="40" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -4436,7 +4434,7 @@
         <v>132</v>
       </c>
       <c r="N1" s="52" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="128" x14ac:dyDescent="0.2">
@@ -4444,7 +4442,7 @@
         <v>524</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C2" s="11">
         <v>3</v>
@@ -4480,7 +4478,7 @@
         <v>534</v>
       </c>
       <c r="N2" s="53" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="56" x14ac:dyDescent="0.2">
@@ -4488,7 +4486,7 @@
         <v>535</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C3" s="11">
         <v>3</v>
@@ -4522,7 +4520,7 @@
         <v>540</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C4" s="11">
         <v>3</v>
@@ -4587,13 +4585,13 @@
         <v>139</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="I1" s="45" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="J1" s="46" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -4618,7 +4616,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -4627,10 +4625,10 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="47" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="J3" s="11" t="b">
         <v>0</v>
@@ -4638,7 +4636,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="44" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -4654,7 +4652,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="44" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -4670,7 +4668,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="44" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -4686,7 +4684,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="44" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -4702,7 +4700,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="44" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -4718,7 +4716,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -4734,7 +4732,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="44" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -4750,7 +4748,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="44" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -4766,7 +4764,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="44" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -4782,7 +4780,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="44" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -5009,7 +5007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB483B4-A36D-4A4B-82E1-2C96D8AE4D09}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -5023,77 +5021,77 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C6" s="48"/>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -5101,91 +5099,91 @@
         <v>538</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C13" s="48"/>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C14" s="48"/>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="51" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C16" s="54"/>
     </row>
@@ -5210,32 +5208,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="49"/>
       <c r="B2" s="49" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -5259,10 +5257,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -5274,7 +5272,7 @@
         <v>767240995</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
   </sheetData>
@@ -5299,13 +5297,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -5316,7 +5314,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
   </sheetData>
@@ -5386,13 +5384,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -5401,7 +5399,7 @@
         <v>13221514</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>
@@ -5413,12 +5411,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:M20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="27.83203125" customWidth="1"/>
     <col min="13" max="13" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5689,7 +5695,7 @@
         <v>597</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>598</v>
@@ -5713,21 +5719,23 @@
         <v>601</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>740</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>602</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>604</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>605</v>
-      </c>
       <c r="F11" s="11" t="s">
-        <v>606</v>
-      </c>
-      <c r="G11" s="11"/>
+        <v>741</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>594</v>
+      </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -5737,28 +5745,28 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
+        <v>603</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="F12" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="G12" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>613</v>
-      </c>
       <c r="H12" s="11" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -5768,19 +5776,19 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -5793,7 +5801,7 @@
     </row>
     <row r="14" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>158</v>
@@ -5805,22 +5813,22 @@
         <v>42</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="I14" s="35" t="s">
         <v>61</v>
       </c>
       <c r="J14" s="35" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="K14" s="35" t="s">
         <v>48</v>
@@ -5830,7 +5838,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>37</v>
@@ -5842,13 +5850,13 @@
         <v>40</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>594</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>42</v>
@@ -5861,16 +5869,16 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>133</v>
@@ -5886,19 +5894,19 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -5911,19 +5919,19 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="35" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>133</v>
@@ -5938,66 +5946,66 @@
     </row>
     <row r="19" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="H19" s="35" t="s">
         <v>34</v>
       </c>
       <c r="I19" s="37" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K19" s="37" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="L19" s="35" t="s">
         <v>35</v>
       </c>
       <c r="M19" s="35" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -10094,7 +10102,7 @@
         <v>100</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -10111,7 +10119,7 @@
         <v>334705780</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -10128,7 +10136,7 @@
         <v>334705780</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/MG.xlsx
+++ b/resources/excels/MG.xlsx
@@ -1,38 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E2C72E-7308-1048-955F-9E3C96FA468E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A53B69-029A-4949-BD3D-B9E5C4E1B003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2600" yWindow="1760" windowWidth="30720" windowHeight="17520" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="Priority" sheetId="2" r:id="rId2"/>
     <sheet name="Headers" sheetId="3" r:id="rId3"/>
     <sheet name="NFTRTickets-San" sheetId="4" r:id="rId4"/>
-    <sheet name="FTRTickets-San" sheetId="5" r:id="rId5"/>
-    <sheet name="NFTRTickets-Reg" sheetId="6" r:id="rId6"/>
-    <sheet name="FTRTickets-Reg" sheetId="7" r:id="rId7"/>
-    <sheet name="UserManagement" sheetId="8" r:id="rId8"/>
-    <sheet name="PinnedTags" sheetId="9" r:id="rId9"/>
-    <sheet name="Ticket State" sheetId="10" r:id="rId10"/>
-    <sheet name="TemplateManagement" sheetId="11" r:id="rId11"/>
-    <sheet name="Ticket Transfer Rules" sheetId="12" r:id="rId12"/>
-    <sheet name="Authentication Policy" sheetId="13" r:id="rId13"/>
-    <sheet name="Action Tagging" sheetId="14" r:id="rId14"/>
-    <sheet name="State Queue Mapping" sheetId="15" r:id="rId15"/>
-    <sheet name="QuestionAnswerKey" sheetId="16" r:id="rId16"/>
-    <sheet name="OpenAPILoginSheet" sheetId="17" r:id="rId17"/>
-    <sheet name="OpenAPIClientConfig" sheetId="18" r:id="rId18"/>
-    <sheet name="ClientConfig" sheetId="19" r:id="rId19"/>
-    <sheet name="AgentDetails" sheetId="20" r:id="rId20"/>
+    <sheet name="Assignment Rule" sheetId="21" r:id="rId5"/>
+    <sheet name="SLA Configuration" sheetId="22" r:id="rId6"/>
+    <sheet name="FTRTickets-San" sheetId="5" r:id="rId7"/>
+    <sheet name="NFTRTickets-Reg" sheetId="6" r:id="rId8"/>
+    <sheet name="FTRTickets-Reg" sheetId="7" r:id="rId9"/>
+    <sheet name="UserManagement" sheetId="8" r:id="rId10"/>
+    <sheet name="PinnedTags" sheetId="9" r:id="rId11"/>
+    <sheet name="Ticket State" sheetId="10" r:id="rId12"/>
+    <sheet name="TemplateManagement" sheetId="11" r:id="rId13"/>
+    <sheet name="Ticket Transfer Rules" sheetId="12" r:id="rId14"/>
+    <sheet name="Authentication Policy" sheetId="13" r:id="rId15"/>
+    <sheet name="Action Tagging" sheetId="14" r:id="rId16"/>
+    <sheet name="State Queue Mapping" sheetId="15" r:id="rId17"/>
+    <sheet name="QuestionAnswerKey" sheetId="16" r:id="rId18"/>
+    <sheet name="OpenAPILoginSheet" sheetId="17" r:id="rId19"/>
+    <sheet name="OpenAPIClientConfig" sheetId="18" r:id="rId20"/>
+    <sheet name="ClientConfig" sheetId="19" r:id="rId21"/>
+    <sheet name="AgentDetails" sheetId="20" r:id="rId22"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -43,8 +45,197 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rahul Gupta</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{5414B836-4C5E-964D-81F0-0B7C54F30E86}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{316ABF1C-E30A-E046-AFA8-CD42B8ED03EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rahul Gupta</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{F497A6A6-9B7B-D34C-B330-21484A6D2C88}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{50E0F050-2DB1-5C41-B354-3998F4122A2F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{BFEAA8BE-DBC6-2C4A-B1A9-32B16C8812C0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Rahul Gupta:
+This column represent the customer Type</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{65DAD2AE-660A-2144-B801-9652563AAF7C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent customer service category</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{7F68EF81-1494-6941-935A-5D37533B70E1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent customer segment</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="762">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2274,15 +2465,82 @@
   </si>
   <si>
     <t>Loan Paid</t>
+  </si>
+  <si>
+    <t>Service request</t>
+  </si>
+  <si>
+    <t>CS Automation NFTR</t>
+  </si>
+  <si>
+    <t>Ignore this category code</t>
+  </si>
+  <si>
+    <t>Do not close this ticket</t>
+  </si>
+  <si>
+    <t>Auto01</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Attribute name</t>
+  </si>
+  <si>
+    <t>Attribute value</t>
+  </si>
+  <si>
+    <t>Workgroup Name</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Rule Priority</t>
+  </si>
+  <si>
+    <t>CS Test Automation</t>
+  </si>
+  <si>
+    <t>customerVip</t>
+  </si>
+  <si>
+    <t>lineType</t>
+  </si>
+  <si>
+    <t>customerType</t>
+  </si>
+  <si>
+    <t>serviceCategory</t>
+  </si>
+  <si>
+    <t>customerSegment</t>
+  </si>
+  <si>
+    <t>customerSubSegment</t>
+  </si>
+  <si>
+    <t>interactionChannel</t>
+  </si>
+  <si>
+    <t>Default SLA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2373,6 +2631,25 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333399"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2496,81 +2773,81 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2580,31 +2857,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2614,6 +2891,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
@@ -3874,6 +4155,204 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>548</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="B2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2">
+        <v>334705780</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="B3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="D3">
+        <v>334705780</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>659</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -3946,7 +4425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -4011,7 +4490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -4383,7 +4862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
@@ -4548,7 +5027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -4799,7 +5278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -5003,7 +5482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB483B4-A36D-4A4B-82E1-2C96D8AE4D09}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -5192,7 +5671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7261B41F-EB4F-0E4D-9021-FA5C9026526A}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -5234,87 +5713,6 @@
       </c>
       <c r="B4" s="49" t="s">
         <v>724</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5545B7-1C59-9046-9ECF-305DA5B6BF9D}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
-        <v>629</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="50">
-        <v>767240995</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>726</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE11409-20B0-EC43-A72A-7DC51F5BC69A}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
-        <v>727</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>728</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="50">
-        <v>1</v>
-      </c>
-      <c r="B2" s="50">
-        <v>5</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>729</v>
       </c>
     </row>
   </sheetData>
@@ -5373,6 +5771,87 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5545B7-1C59-9046-9ECF-305DA5B6BF9D}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
+        <v>629</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="50">
+        <v>767240995</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>726</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE11409-20B0-EC43-A72A-7DC51F5BC69A}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
+        <v>727</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>728</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="50">
+        <v>1</v>
+      </c>
+      <c r="B2" s="50">
+        <v>5</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>729</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F716F47-9256-004B-B7B8-227CD2B108D2}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -5411,7 +5890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -5523,7 +6002,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>41</v>
       </c>
@@ -5799,7 +6278,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>615</v>
       </c>
@@ -6025,7 +6504,7 @@
   <dimension ref="A1:BH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AM9" sqref="AM9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6210,48 +6689,21 @@
       </c>
       <c r="BH1" s="32"/>
     </row>
-    <row r="2" spans="1:60" ht="45" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="F2" t="s">
-        <v>462</v>
-      </c>
-      <c r="G2" t="s">
-        <v>463</v>
-      </c>
-      <c r="H2" t="s">
-        <v>464</v>
-      </c>
-      <c r="I2" t="s">
-        <v>465</v>
-      </c>
-      <c r="J2" t="s">
-        <v>466</v>
-      </c>
-      <c r="K2" t="s">
-        <v>467</v>
-      </c>
-      <c r="L2" t="s">
-        <v>468</v>
-      </c>
-      <c r="M2" t="s">
-        <v>463</v>
-      </c>
-      <c r="N2" t="s">
-        <v>464</v>
+    <row r="2" spans="1:60" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="56" t="s">
+        <v>742</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>743</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>744</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>745</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>746</v>
       </c>
       <c r="AV2" s="12" t="s">
         <v>498</v>
@@ -6278,6 +6730,172 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF434A0C-22A3-4940-AF52-6A8C7F8CC265}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="58" t="s">
+        <v>746</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="58" t="s">
+        <v>753</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>753</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>507</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8DFBF6-C13A-A14A-8E2E-6992CDB636A1}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="58" t="s">
+        <v>746</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="58" t="s">
+        <v>753</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="R2" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -6333,7 +6951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BH21"/>
   <sheetViews>
@@ -7630,7 +8248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F117"/>
   <sheetViews>
@@ -9947,202 +10565,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>498</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>499</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
-        <v>546</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="27" t="s">
-        <v>548</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>548</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="B2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="D2">
-        <v>334705780</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>555</v>
-      </c>
-      <c r="B3" t="s">
-        <v>464</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="D3">
-        <v>334705780</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>659</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C2:C3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/resources/excels/MG.xlsx
+++ b/resources/excels/MG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A53B69-029A-4949-BD3D-B9E5C4E1B003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608722BB-97F4-E44F-9AF9-D4C113B89112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="1760" windowWidth="30720" windowHeight="17520" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2600" yWindow="1760" windowWidth="30720" windowHeight="17520" firstSheet="8" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="760">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2443,18 +2443,9 @@
     <t>Ashwani Rao</t>
   </si>
   <si>
-    <t>Last Data Bundle Recharge Amount in 2 months (Mandatory)</t>
-  </si>
-  <si>
     <t>Question 11</t>
   </si>
   <si>
-    <t>Last Data Bundle Recharge Amount in 2 months</t>
-  </si>
-  <si>
-    <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
-  </si>
-  <si>
     <t>Loan ID</t>
   </si>
   <si>
@@ -2525,13 +2516,16 @@
   </si>
   <si>
     <t>Default SLA</t>
+  </si>
+  <si>
+    <t>TURE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2626,12 +2620,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2781,7 +2769,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
@@ -2878,21 +2866,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -4867,7 +4849,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4912,11 +4894,11 @@
       <c r="M1" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="N1" s="52" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="128" x14ac:dyDescent="0.2">
+      <c r="N1" s="51" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>524</v>
       </c>
@@ -4956,9 +4938,7 @@
       <c r="M2" s="36" t="s">
         <v>534</v>
       </c>
-      <c r="N2" s="53" t="s">
-        <v>734</v>
-      </c>
+      <c r="N2" s="52"/>
     </row>
     <row r="3" spans="1:14" ht="56" x14ac:dyDescent="0.2">
       <c r="A3" s="42" t="s">
@@ -5032,7 +5012,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5237,8 +5217,8 @@
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="44" t="b">
-        <v>0</v>
+      <c r="J11" s="44" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -5484,10 +5464,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB483B4-A36D-4A4B-82E1-2C96D8AE4D09}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5656,15 +5636,6 @@
       <c r="C15" s="9" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
-        <v>736</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>737</v>
-      </c>
-      <c r="C16" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6198,19 +6169,19 @@
         <v>601</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>739</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>740</v>
+        <v>736</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>737</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>602</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>594</v>
@@ -6690,20 +6661,20 @@
       <c r="BH1" s="32"/>
     </row>
     <row r="2" spans="1:60" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="54" t="s">
+        <v>739</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>740</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>741</v>
+      </c>
+      <c r="D2" s="54" t="s">
         <v>742</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="E2" s="55" t="s">
         <v>743</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>744</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>745</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>746</v>
       </c>
       <c r="AV2" s="12" t="s">
         <v>498</v>
@@ -6741,16 +6712,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>747</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>750</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>90</v>
@@ -6759,28 +6730,28 @@
         <v>91</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
-        <v>746</v>
+      <c r="A2" s="56" t="s">
+        <v>743</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="58" t="s">
-        <v>753</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>753</v>
-      </c>
-      <c r="F2" s="58" t="s">
+      <c r="D2" s="56" t="s">
+        <v>750</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>750</v>
+      </c>
+      <c r="F2" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="56" t="s">
         <v>507</v>
       </c>
       <c r="H2" s="2">
@@ -6797,7 +6768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8DFBF6-C13A-A14A-8E2E-6992CDB636A1}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -6805,28 +6776,28 @@
   <sheetData>
     <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>754</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="11" t="s">
         <v>755</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>756</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>757</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>758</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>759</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>760</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>81</v>
@@ -6852,16 +6823,16 @@
       <c r="P1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="59" t="s">
+      <c r="Q1" s="57" t="s">
         <v>89</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
-        <v>746</v>
+      <c r="A2" s="56" t="s">
+        <v>743</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6870,8 +6841,8 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="58" t="s">
-        <v>753</v>
+      <c r="I2" s="56" t="s">
+        <v>750</v>
       </c>
       <c r="J2" s="3">
         <v>0.6</v>
